--- a/log_history/Y4_B2627_Clinical_Pathology_scanner1768378201295_f59f5457b47ebac5d429969d3ae5d2b01c543e1dee923978bb0a0d3b7be62ba4.xlsx
+++ b/log_history/Y4_B2627_Clinical_Pathology_scanner1768378201295_f59f5457b47ebac5d429969d3ae5d2b01c543e1dee923978bb0a0d3b7be62ba4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Clinical_Pathology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
